--- a/ImpTemplate/签约模板.xlsx
+++ b/ImpTemplate/签约模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>客户ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -287,6 +287,14 @@
   </si>
   <si>
     <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收首付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收贷款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ2"/>
+  <dimension ref="A1:BL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BK7" sqref="BK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -709,10 +717,10 @@
     <col min="51" max="51" width="10.125" customWidth="1"/>
     <col min="56" max="56" width="11.125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="13" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -894,13 +902,19 @@
         <v>60</v>
       </c>
       <c r="BI1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK1" t="s">
         <v>66</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>16</v>
       </c>
@@ -1031,10 +1045,16 @@
       <c r="BH2">
         <v>300000</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BI2">
+        <v>10000</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="1">
         <v>8</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/ImpTemplate/签约模板.xlsx
+++ b/ImpTemplate/签约模板.xlsx
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,9 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销一</t>
-  </si>
-  <si>
     <t>签约编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,6 +288,14 @@
   </si>
   <si>
     <t>已收贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵东南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BK7" sqref="BK7"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BJ2" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -770,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -785,7 +786,7 @@
         <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W1" t="s">
         <v>25</v>
@@ -800,7 +801,7 @@
         <v>21</v>
       </c>
       <c r="AA1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB1" t="s">
         <v>22</v>
@@ -812,126 +813,126 @@
         <v>10</v>
       </c>
       <c r="AE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP1" t="s">
         <v>42</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
         <v>62</v>
       </c>
-      <c r="AP1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK1" t="s">
         <v>64</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>66</v>
-      </c>
       <c r="BL1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>754</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" s="2">
-        <v>43398</v>
+        <v>43763</v>
       </c>
       <c r="F2" s="1">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1">
         <v>2</v>
@@ -952,10 +953,10 @@
         <v>470353</v>
       </c>
       <c r="M2" s="1">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O2" s="1">
         <v>8.76</v>
@@ -980,19 +981,19 @@
         <v>487873</v>
       </c>
       <c r="AC2" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF2" s="6">
-        <v>43403</v>
+        <v>43768</v>
       </c>
       <c r="AG2" s="1">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="AH2" s="1">
         <v>2</v>
@@ -1013,7 +1014,7 @@
         <v>470353</v>
       </c>
       <c r="AN2" s="1">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="AO2" s="1">
         <v>2</v>
@@ -1031,10 +1032,10 @@
         <v>487873</v>
       </c>
       <c r="BD2">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="BE2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF2">
         <v>35</v>
@@ -1049,13 +1050,13 @@
         <v>10000</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="BK2" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/ImpTemplate/签约模板.xlsx
+++ b/ImpTemplate/签约模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>客户ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -268,34 +268,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>签约顾问ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约顾问名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收首付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>首付30%</t>
-  </si>
-  <si>
-    <t>签约顾问ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约顾问名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已收首付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已收贷款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵瑶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵东南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李李李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>125.85</t>
+  </si>
+  <si>
+    <t>6500.0000</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>收款日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放贷日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +333,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +373,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -361,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -373,7 +421,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -678,51 +729,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL2"/>
+  <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BJ2" sqref="BJ2"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BM14" sqref="BM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="5"/>
-    <col min="15" max="15" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.25" customWidth="1"/>
-    <col min="18" max="18" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="13" max="13" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="6.25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.25" customWidth="1"/>
-    <col min="23" max="23" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.25" customWidth="1"/>
-    <col min="29" max="29" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7" customWidth="1"/>
+    <col min="28" max="28" width="17.625" customWidth="1"/>
+    <col min="29" max="29" width="15.25" style="7" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="17.25" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9" style="7"/>
+    <col min="39" max="39" width="12.625" customWidth="1"/>
+    <col min="40" max="40" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="10.125" customWidth="1"/>
-    <col min="45" max="45" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.5" customWidth="1"/>
+    <col min="45" max="45" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="10.125" customWidth="1"/>
-    <col min="50" max="50" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="10.125" customWidth="1"/>
-    <col min="56" max="56" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.625" customWidth="1"/>
+    <col min="56" max="56" width="11.125" style="7" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="13" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.5" style="5" customWidth="1"/>
+    <col min="66" max="66" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -737,7 +797,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -758,7 +818,7 @@
       <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -773,7 +833,7 @@
       <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="S1" t="s">
@@ -788,7 +848,7 @@
       <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="X1" t="s">
@@ -806,7 +866,7 @@
       <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AD1" t="s">
@@ -818,7 +878,7 @@
       <c r="AF1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="7" t="s">
         <v>34</v>
       </c>
       <c r="AH1" t="s">
@@ -839,7 +899,7 @@
       <c r="AM1" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="7" t="s">
         <v>41</v>
       </c>
       <c r="AO1" t="s">
@@ -854,7 +914,7 @@
       <c r="AR1" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AT1" t="s">
@@ -869,7 +929,7 @@
       <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="7" t="s">
         <v>49</v>
       </c>
       <c r="AY1" t="s">
@@ -887,7 +947,7 @@
       <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="7" t="s">
         <v>54</v>
       </c>
       <c r="BE1" t="s">
@@ -903,24 +963,33 @@
         <v>58</v>
       </c>
       <c r="BI1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>754</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>754</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
@@ -931,60 +1000,63 @@
       <c r="E2" s="2">
         <v>43763</v>
       </c>
-      <c r="F2" s="1">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1003</v>
-      </c>
-      <c r="J2" s="1">
-        <v>86.24</v>
-      </c>
-      <c r="K2" s="1">
-        <v>5454</v>
+      <c r="F2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="L2" s="1">
-        <v>470353</v>
-      </c>
-      <c r="M2" s="1">
-        <v>11</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="1">
-        <v>8.76</v>
-      </c>
-      <c r="P2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>17520</v>
-      </c>
-      <c r="R2" s="1"/>
+        <f>J2*K2</f>
+        <v>818025</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="9">
+        <v>5</v>
+      </c>
+      <c r="O2" s="9">
+        <v>10</v>
+      </c>
+      <c r="P2" s="9">
+        <v>3000</v>
+      </c>
+      <c r="Q2" s="9">
+        <f>O2*P2</f>
+        <v>30000</v>
+      </c>
+      <c r="R2" s="9"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="W2" s="8"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1">
-        <v>487873</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>1</v>
+        <f>L2+Q2+V2+AA2</f>
+        <v>848025</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>290</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE2" t="s">
         <v>59</v>
@@ -992,71 +1064,83 @@
       <c r="AF2" s="6">
         <v>43768</v>
       </c>
-      <c r="AG2" s="1">
-        <v>6</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>1003</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>86.24</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>5454</v>
+      <c r="AG2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="AM2" s="1">
-        <v>470353</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>11</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>8.76</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>2000</v>
+        <f>AK2*AL2</f>
+        <v>818025</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO2" s="9">
+        <v>5</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="9">
+        <v>3000</v>
       </c>
       <c r="AR2" s="1">
-        <v>17520</v>
+        <f>AP2*AQ2</f>
+        <v>30000</v>
       </c>
       <c r="BC2">
-        <v>487873</v>
-      </c>
-      <c r="BD2">
+        <f>AM2+AR2+AW2+BB2</f>
+        <v>848025</v>
+      </c>
+      <c r="BD2" s="7">
         <v>44</v>
       </c>
       <c r="BE2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="BF2">
         <v>35</v>
       </c>
       <c r="BG2">
-        <v>187873</v>
+        <v>348025</v>
       </c>
       <c r="BH2">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="BI2">
         <v>10000</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" s="6">
+        <v>43466</v>
+      </c>
+      <c r="BK2">
         <v>300000</v>
       </c>
-      <c r="BK2" s="1">
+      <c r="BL2" s="6">
+        <v>43544</v>
+      </c>
+      <c r="BM2" s="10">
         <v>1</v>
       </c>
-      <c r="BL2" s="1" t="s">
-        <v>70</v>
+      <c r="BN2" s="8">
+        <v>290</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
